--- a/data/trans_orig/P25D_R2_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P25D_R2_2023-Provincia-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>11194</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4901</v>
+        <v>4740</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>23369</v>
+        <v>23045</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03510698101260033</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0153720786180488</v>
+        <v>0.01486726239445878</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07329247319218581</v>
+        <v>0.07227588793076442</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -765,7 +765,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>3065</v>
+        <v>3016</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.003072413008387706</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.009697125646073614</v>
+        <v>0.009543040957523832</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>9</v>
@@ -783,19 +783,19 @@
         <v>12165</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>5157</v>
+        <v>5935</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>23957</v>
+        <v>24314</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01915994732303356</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.00812168942127537</v>
+        <v>0.009347584276688791</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03773313458714971</v>
+        <v>0.03829613549346672</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>307651</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>295476</v>
+        <v>295800</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>313944</v>
+        <v>314105</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9648930189873997</v>
+        <v>0.9648930189873999</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.926707526807815</v>
+        <v>0.9277241120692358</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9846279213819512</v>
+        <v>0.9851327376055414</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>536</v>
@@ -833,7 +833,7 @@
         <v>315090</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>312996</v>
+        <v>313045</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>316061</v>
@@ -842,7 +842,7 @@
         <v>0.9969275869916122</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9903028743539264</v>
+        <v>0.9904569590424761</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -854,19 +854,19 @@
         <v>622741</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>610949</v>
+        <v>610592</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>629749</v>
+        <v>628971</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9808400526769665</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9622668654128501</v>
+        <v>0.9617038645065332</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9918783105787243</v>
+        <v>0.9906524157233112</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>29161</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>15958</v>
+        <v>15943</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>51103</v>
+        <v>49767</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.05495361744133909</v>
+        <v>0.0549536174413391</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.030072162683933</v>
+        <v>0.03004453596836713</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.09630266869108248</v>
+        <v>0.09378501335340747</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>6</v>
@@ -979,19 +979,19 @@
         <v>5565</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1928</v>
+        <v>1959</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>13302</v>
+        <v>12896</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01018308636225953</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.003527119449275204</v>
+        <v>0.003585017602594964</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02433976836129176</v>
+        <v>0.02359728790582466</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>19</v>
@@ -1000,19 +1000,19 @@
         <v>34726</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>20578</v>
+        <v>20715</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>57503</v>
+        <v>57468</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03223901080396185</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01910405123621306</v>
+        <v>0.0192314340045813</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05338504369006875</v>
+        <v>0.05335271762304239</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>501486</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>479544</v>
+        <v>480880</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>514689</v>
+        <v>514704</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9450463825586609</v>
+        <v>0.945046382558661</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9036973313089178</v>
+        <v>0.9062149866465924</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.969927837316067</v>
+        <v>0.9699554640316322</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>711</v>
@@ -1050,19 +1050,19 @@
         <v>540929</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>533192</v>
+        <v>533598</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>544566</v>
+        <v>544535</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9898169136377404</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9756602316387099</v>
+        <v>0.9764027120941765</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9964728805507247</v>
+        <v>0.9964149823974052</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1080</v>
@@ -1071,19 +1071,19 @@
         <v>1042415</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1019638</v>
+        <v>1019673</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1056563</v>
+        <v>1056426</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9677609891960383</v>
+        <v>0.9677609891960381</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9466149563099313</v>
+        <v>0.9466472823769575</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9808959487637869</v>
+        <v>0.9807685659954186</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>5235</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1446</v>
+        <v>1429</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>12234</v>
+        <v>13229</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01656691871822667</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.004575356804952967</v>
+        <v>0.004522301364581083</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03871492696874096</v>
+        <v>0.04186465855681547</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>5</v>
@@ -1196,19 +1196,19 @@
         <v>3161</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1210</v>
+        <v>1219</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>6899</v>
+        <v>6678</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.008869389005110926</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.003394164489695541</v>
+        <v>0.003419638536474083</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01935900759359886</v>
+        <v>0.01873947455005471</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>9</v>
@@ -1217,19 +1217,19 @@
         <v>8396</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>3991</v>
+        <v>3831</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>15884</v>
+        <v>16002</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0124869679468019</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.005935248427840809</v>
+        <v>0.005697001471241753</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02362314995082046</v>
+        <v>0.02379963761879922</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>310758</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>303759</v>
+        <v>302764</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>314547</v>
+        <v>314564</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9834330812817732</v>
+        <v>0.9834330812817734</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9612850730312591</v>
+        <v>0.9581353414431846</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.995424643195047</v>
+        <v>0.9954776986354188</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>531</v>
@@ -1267,19 +1267,19 @@
         <v>353220</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>349482</v>
+        <v>349703</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>355171</v>
+        <v>355162</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9911306109948892</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9806409924064013</v>
+        <v>0.9812605254499452</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9966058355103045</v>
+        <v>0.9965803614635259</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>887</v>
@@ -1288,19 +1288,19 @@
         <v>663979</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>656491</v>
+        <v>656373</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>668384</v>
+        <v>668544</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9875130320531984</v>
+        <v>0.9875130320531983</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9763768500491798</v>
+        <v>0.9762003623812006</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9940647515721592</v>
+        <v>0.9943029985287581</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>10564</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2903</v>
+        <v>3375</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>26596</v>
+        <v>27104</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02831127047295359</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.007781154007202682</v>
+        <v>0.009045678576514775</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07127440477040956</v>
+        <v>0.0726373387105857</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>8</v>
@@ -1413,19 +1413,19 @@
         <v>10259</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>4063</v>
+        <v>4272</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>20517</v>
+        <v>20868</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02431168782925442</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.009629201201989923</v>
+        <v>0.01012326486189061</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04862350935629147</v>
+        <v>0.04945463911464322</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>12</v>
@@ -1434,19 +1434,19 @@
         <v>20823</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>10975</v>
+        <v>10852</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>38599</v>
+        <v>37075</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02618870043010232</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01380303557710762</v>
+        <v>0.01364885513844692</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04854542384777624</v>
+        <v>0.04662937979549734</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>362581</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>346549</v>
+        <v>346041</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>370242</v>
+        <v>369770</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9716887295270465</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9287255952295902</v>
+        <v>0.9273626612894156</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9922188459927972</v>
+        <v>0.9909543214234853</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>591</v>
@@ -1484,19 +1484,19 @@
         <v>411702</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>401444</v>
+        <v>401093</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>417898</v>
+        <v>417689</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9756883121707457</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9513764906437084</v>
+        <v>0.9505453608853568</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.99037079879801</v>
+        <v>0.9898767351381094</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>879</v>
@@ -1505,19 +1505,19 @@
         <v>774284</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>756508</v>
+        <v>758032</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>784132</v>
+        <v>784255</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9738112995698976</v>
+        <v>0.9738112995698975</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9514545761522236</v>
+        <v>0.9533706202045026</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9861969644228923</v>
+        <v>0.9863511448615532</v>
       </c>
     </row>
     <row r="15">
@@ -1612,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>5185</v>
+        <v>5989</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.007402179551155968</v>
@@ -1621,7 +1621,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0252105286037891</v>
+        <v>0.02912072488779225</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>7</v>
@@ -1630,19 +1630,19 @@
         <v>3263</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1500</v>
+        <v>1296</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>7161</v>
+        <v>6850</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01435935937173283</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.00660340158203539</v>
+        <v>0.005702594382428051</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03151689204166165</v>
+        <v>0.03014653907591172</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>9</v>
@@ -1651,19 +1651,19 @@
         <v>4785</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2411</v>
+        <v>2376</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>9565</v>
+        <v>9257</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01105394362388862</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.005570827464852568</v>
+        <v>0.005488189353659239</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02209733792365812</v>
+        <v>0.02138552036227064</v>
       </c>
     </row>
     <row r="17">
@@ -1680,16 +1680,16 @@
         <v>204143</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>200480</v>
+        <v>199676</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>205665</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9925978204488439</v>
+        <v>0.992597820448844</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.974789471396211</v>
+        <v>0.970879275112209</v>
       </c>
       <c r="I17" s="6" t="n">
         <v>1</v>
@@ -1701,19 +1701,19 @@
         <v>223952</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>220054</v>
+        <v>220365</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>225715</v>
+        <v>225919</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9856406406282673</v>
+        <v>0.9856406406282671</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9684831079583383</v>
+        <v>0.9698534609240882</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9933965984179646</v>
+        <v>0.994297405617572</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>762</v>
@@ -1722,19 +1722,19 @@
         <v>428094</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>423314</v>
+        <v>423622</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>430468</v>
+        <v>430503</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9889460563761115</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9779026620763419</v>
+        <v>0.9786144796377294</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9944291725351473</v>
+        <v>0.9945118106463408</v>
       </c>
     </row>
     <row r="18">
@@ -1829,7 +1829,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>4233</v>
+        <v>4217</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.003057348153516699</v>
@@ -1838,7 +1838,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.0156356341062766</v>
+        <v>0.01557668876017291</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>3</v>
@@ -1847,19 +1847,19 @@
         <v>2638</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>7509</v>
+        <v>8050</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01000033026419572</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.00226947729117164</v>
+        <v>0.002278611415424828</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.02846924552362395</v>
+        <v>0.03052173428211343</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>4</v>
@@ -1868,19 +1868,19 @@
         <v>3465</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1204</v>
+        <v>863</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>8865</v>
+        <v>8994</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.006483653037322787</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.002252110029764566</v>
+        <v>0.001614837536405528</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.01658757976023451</v>
+        <v>0.01682864183030473</v>
       </c>
     </row>
     <row r="20">
@@ -1897,7 +1897,7 @@
         <v>269879</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>266474</v>
+        <v>266490</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>270707</v>
@@ -1906,7 +1906,7 @@
         <v>0.9969426518464832</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9843643658937236</v>
+        <v>0.9844233112398272</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -1918,19 +1918,19 @@
         <v>261112</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>256241</v>
+        <v>255700</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>263151</v>
+        <v>263149</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.9899996697358044</v>
+        <v>0.9899996697358041</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9715307544763759</v>
+        <v>0.9694782657178866</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9977305227088284</v>
+        <v>0.9977213885845752</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>827</v>
@@ -1939,19 +1939,19 @@
         <v>530992</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>525592</v>
+        <v>525463</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>533253</v>
+        <v>533594</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.9935163469626773</v>
+        <v>0.9935163469626771</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9834124202397657</v>
+        <v>0.9831713581696954</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9977478899702354</v>
+        <v>0.9983851624635945</v>
       </c>
     </row>
     <row r="21">
@@ -2043,19 +2043,19 @@
         <v>34695</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>21984</v>
+        <v>20981</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>57682</v>
+        <v>52526</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.04880892878311593</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0309270478966689</v>
+        <v>0.02951590521190008</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.08114655558345829</v>
+        <v>0.07389386254442974</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>18</v>
@@ -2064,19 +2064,19 @@
         <v>25293</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>15110</v>
+        <v>15313</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>40650</v>
+        <v>42885</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.03306854885021491</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.0197547744249306</v>
+        <v>0.02002072427923869</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.05314559644261269</v>
+        <v>0.05606857290977879</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>39</v>
@@ -2085,19 +2085,19 @@
         <v>59988</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>42811</v>
+        <v>43260</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>86672</v>
+        <v>85805</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.04065054268022934</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02901068781468615</v>
+        <v>0.02931476181300162</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.05873243783630237</v>
+        <v>0.05814504036792176</v>
       </c>
     </row>
     <row r="23">
@@ -2114,19 +2114,19 @@
         <v>676141</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>653154</v>
+        <v>658310</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>688852</v>
+        <v>689855</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9511910712168841</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9188534444165415</v>
+        <v>0.9261061374555697</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9690729521033312</v>
+        <v>0.9704840947880998</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>932</v>
@@ -2135,19 +2135,19 @@
         <v>739582</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>724225</v>
+        <v>721990</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>749765</v>
+        <v>749562</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9669314511497852</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.946854403557387</v>
+        <v>0.9439314270902212</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9802452255750694</v>
+        <v>0.9799792757207613</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1502</v>
@@ -2156,19 +2156,19 @@
         <v>1415723</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1389039</v>
+        <v>1389906</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1432900</v>
+        <v>1432451</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9593494573197707</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9412675621636977</v>
+        <v>0.9418549596320779</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9709893121853137</v>
+        <v>0.9706852381869984</v>
       </c>
     </row>
     <row r="24">
@@ -2260,19 +2260,19 @@
         <v>26495</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>16773</v>
+        <v>17412</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>39179</v>
+        <v>38445</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03327989607523849</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02106846134159626</v>
+        <v>0.02187080604086886</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.04921194563703442</v>
+        <v>0.04829028241331566</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>23</v>
@@ -2281,19 +2281,19 @@
         <v>20802</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>12771</v>
+        <v>12994</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>32187</v>
+        <v>32004</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.02502245863816327</v>
+        <v>0.02502245863816326</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01536264712332485</v>
+        <v>0.0156298214399547</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.0387169796043117</v>
+        <v>0.0384970982697703</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>45</v>
@@ -2302,19 +2302,19 @@
         <v>47297</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>35023</v>
+        <v>34670</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>63567</v>
+        <v>63680</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.02906185724929135</v>
+        <v>0.02906185724929136</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02151987053199404</v>
+        <v>0.02130346227201207</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.03905909446097856</v>
+        <v>0.03912842203092621</v>
       </c>
     </row>
     <row r="26">
@@ -2331,19 +2331,19 @@
         <v>769628</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>756944</v>
+        <v>757678</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>779350</v>
+        <v>778711</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9667201039247617</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9507880543629653</v>
+        <v>0.9517097175866843</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9789315386584038</v>
+        <v>0.9781291939591311</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1039</v>
@@ -2352,19 +2352,19 @@
         <v>810529</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>799144</v>
+        <v>799327</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>818560</v>
+        <v>818337</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9749775413618369</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.961283020395689</v>
+        <v>0.9615029017302295</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9846373528766755</v>
+        <v>0.9843701785600453</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1777</v>
@@ -2373,19 +2373,19 @@
         <v>1580158</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1563888</v>
+        <v>1563775</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1592432</v>
+        <v>1592785</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9709381427507087</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9609409055390209</v>
+        <v>0.9608715779690737</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9784801294680058</v>
+        <v>0.9786965377279878</v>
       </c>
     </row>
     <row r="27">
@@ -2477,19 +2477,19 @@
         <v>119694</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>92460</v>
+        <v>95401</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>155686</v>
+        <v>152018</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.03398502895526763</v>
+        <v>0.03398502895526764</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.02625229712738709</v>
+        <v>0.02708753542960424</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.04420427292151743</v>
+        <v>0.04316300226435273</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>72</v>
@@ -2498,19 +2498,19 @@
         <v>71951</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>55906</v>
+        <v>54082</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>93034</v>
+        <v>91633</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.01929981707580759</v>
+        <v>0.0192998170758076</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.01499605300007515</v>
+        <v>0.01450673406588835</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.02495500029838613</v>
+        <v>0.02457912788608132</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>146</v>
@@ -2519,19 +2519,19 @@
         <v>191645</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>158375</v>
+        <v>158361</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>226847</v>
+        <v>227493</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.02643368445029211</v>
+        <v>0.02643368445029212</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.02184478630354801</v>
+        <v>0.02184277289348843</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.03128917001956389</v>
+        <v>0.0313781853938863</v>
       </c>
     </row>
     <row r="29">
@@ -2548,19 +2548,19 @@
         <v>3402269</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3366277</v>
+        <v>3369945</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3429503</v>
+        <v>3426562</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.9660149710447322</v>
+        <v>0.9660149710447323</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9557957270784826</v>
+        <v>0.9568369977356472</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9737477028726129</v>
+        <v>0.9729124645703959</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>5282</v>
@@ -2569,19 +2569,19 @@
         <v>3656119</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3635036</v>
+        <v>3636437</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3672164</v>
+        <v>3673988</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.9807001829241923</v>
+        <v>0.9807001829241924</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9750449997016135</v>
+        <v>0.9754208721139187</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9850039469999249</v>
+        <v>0.9854932659341112</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>8574</v>
@@ -2590,19 +2590,19 @@
         <v>7058387</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>7023185</v>
+        <v>7022539</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>7091657</v>
+        <v>7091671</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.9735663155497079</v>
+        <v>0.9735663155497082</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9687108299804368</v>
+        <v>0.9686218146061139</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9781552136964522</v>
+        <v>0.9781572271065117</v>
       </c>
     </row>
     <row r="30">
